--- a/downloads/list2_with_colon_matched_filtered.xlsx
+++ b/downloads/list2_with_colon_matched_filtered.xlsx
@@ -890,7 +890,7 @@
         <v>68</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -912,7 +912,7 @@
         <v>70</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1143,7 +1143,7 @@
         <v>91</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
